--- a/Data_ions/C-ion_data.xlsx
+++ b/Data_ions/C-ion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\Dokument Jobbet Nankai\PROJEKT\Perovskite composition ontology\Code\Data_ions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesja78\Dropbox\Dokument Jobbet Linköping\PROJECT\Jacobsson - 2023 - Perovskite A cations\Code_v5\Data_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F0D79D-EDF0-4C05-823A-B8957444CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E638C-E9C0-4BFA-A716-4CB6F5E55127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="345" windowWidth="30750" windowHeight="9285" xr2:uid="{E970FA47-79D6-4FBD-BAE1-466D57965A2F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E970FA47-79D6-4FBD-BAE1-466D57965A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,6 @@
     <t>Cl-</t>
   </si>
   <si>
-    <t>O2-</t>
-  </si>
-  <si>
-    <t>S2-</t>
-  </si>
-  <si>
     <t>CNS-</t>
   </si>
   <si>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>16872-11-0</t>
+  </si>
+  <si>
+    <t>O-2</t>
+  </si>
+  <si>
+    <t>S-2</t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -453,19 +452,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -678,37 +664,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -717,6 +672,50 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,33 +731,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3B9210-6799-419B-A29F-CCCBF729F8C2}" name="Table1" displayName="Table1" ref="A1:O10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="1" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3B9210-6799-419B-A29F-CCCBF729F8C2}" name="Table1" displayName="Table1" ref="A1:O10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:O10" xr:uid="{DC3B9210-6799-419B-A29F-CCCBF729F8C2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{CC950E93-2789-4C7B-85B1-62765A5F80A9}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CD988088-9AF6-4A87-8E59-4172331B7FD0}" name="Abbreviation" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B431E4FB-79D5-4F16-A476-EFD4A63D1A0E}" name="Alternative_abbreviations" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5C2F5B3C-7026-4141-81DC-F62A56C8FAC0}" name="Molecular_formula" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{DF31F91A-D99E-4FD7-9404-8080EA2ABCEF}" name="SMILE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{B8ADC39C-0934-40B5-9283-1F94378449F2}" name="Common_name" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{1E1C638B-1CEA-4D5D-93CB-E341900DB88F}" name="IUPAC_name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{4BB57BE3-111D-4679-A546-2BEC3495E4F9}" name="CAS" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2D44505C-BF8D-41BF-9BB1-F25B33E41BEC}" name="Parent_IUPAC" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{1FFF5351-0565-4798-8BE2-6080BF5878E2}" name="Parent_SMILE" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{306012DB-F36E-4966-BF2B-9DDB870782FE}" name="Parent_CAS" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{EA9263B1-167D-49CE-A566-D5468E4053DF}" name="Common_source_compound" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{3BF81E27-5E0E-4ED0-8936-0D6DED825B86}" name="Source_compound_CAS" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7EA39C1C-9DB0-4C78-B03D-22CD548D9B58}" name="Chemical_formula" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{48B6D97D-2997-4BD9-906F-6492D387FD27}" name="Number_of_occurances" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CC950E93-2789-4C7B-85B1-62765A5F80A9}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CD988088-9AF6-4A87-8E59-4172331B7FD0}" name="Abbreviation" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B431E4FB-79D5-4F16-A476-EFD4A63D1A0E}" name="Alternative_abbreviations" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{5C2F5B3C-7026-4141-81DC-F62A56C8FAC0}" name="Molecular_formula" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DF31F91A-D99E-4FD7-9404-8080EA2ABCEF}" name="SMILE" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B8ADC39C-0934-40B5-9283-1F94378449F2}" name="Common_name" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1E1C638B-1CEA-4D5D-93CB-E341900DB88F}" name="IUPAC_name" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{4BB57BE3-111D-4679-A546-2BEC3495E4F9}" name="CAS" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2D44505C-BF8D-41BF-9BB1-F25B33E41BEC}" name="Parent_IUPAC" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1FFF5351-0565-4798-8BE2-6080BF5878E2}" name="Parent_SMILE" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{306012DB-F36E-4966-BF2B-9DDB870782FE}" name="Parent_CAS" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{EA9263B1-167D-49CE-A566-D5468E4053DF}" name="Common_source_compound" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{3BF81E27-5E0E-4ED0-8936-0D6DED825B86}" name="Source_compound_CAS" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{7EA39C1C-9DB0-4C78-B03D-22CD548D9B58}" name="Chemical_formula" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{48B6D97D-2997-4BD9-906F-6492D387FD27}" name="Number_of_occurances" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -796,7 +795,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -902,7 +901,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,7 +1043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1055,7 +1054,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,44 +1125,43 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2">
         <v>42324</v>
       </c>
     </row>
@@ -1171,44 +1169,43 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3">
         <v>10764</v>
       </c>
     </row>
@@ -1216,44 +1213,43 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4">
         <v>92</v>
       </c>
     </row>
@@ -1261,40 +1257,37 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5">
         <v>32</v>
       </c>
     </row>
@@ -1302,40 +1295,37 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6">
         <v>26</v>
       </c>
     </row>
@@ -1343,44 +1333,43 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7">
         <v>12</v>
       </c>
     </row>
@@ -1388,44 +1377,43 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8">
         <v>12</v>
       </c>
     </row>
@@ -1433,42 +1421,40 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9">
         <v>11</v>
       </c>
     </row>
@@ -1476,42 +1462,40 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
         <v>9</v>
       </c>
     </row>
